--- a/datastats/n.xlsx
+++ b/datastats/n.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UU\Desktop\cTest\datastats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\cTest\datastats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B403670B-16E1-403A-A535-A13DA399E3C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56891DF-F83D-4799-90AB-78983E0D4DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>友 と も 達 だ ち のあやかさんです。</t>
   </si>
@@ -191,8 +191,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>どこ　哪里、哪儿 do</t>
+    <t>比どこ　更郑重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ベトナム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>から来 き ました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 Betonamu kara kima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shita.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめまして。アンナです。学 が く 生 せ い です。 Hajimema⎤shite. A⎤nna de⎤su. Gakusee de⎤su.</t>
+  </si>
+  <si>
+    <t>自我介绍：【名字／姓】です。【职业】です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よろしくお願 ね が いします。 Yoroshiku onegai-shima⎤su.</t>
+  </si>
+  <si>
+    <t>ありがとうございます。 Ari⎤gatoo gozaima⎤su.</t>
+  </si>
+  <si>
+    <t>大だ い学が く 大学daigaku</t>
+  </si>
+  <si>
+    <t>日に本ほ ん語ご 日语Nihongo</t>
+  </si>
+  <si>
+    <t>勉べ ん強きょうする　学习benkyoo-suru</t>
+  </si>
+  <si>
+    <t>すみません。トイレはどこですか。 Sumimase⎤n. To⎤ire wa do⎤ko de⎤su ka.</t>
+  </si>
+  <si>
+    <t>将要做什么：用动词的マス形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日 に 本 ほ ん で何な に をしますか。 Niho⎤n de na⎤ni o shima⎤su ka.</t>
+  </si>
+  <si>
+    <t>買 か い物も の をします。 Kaimono o shima⎤su.</t>
+  </si>
+  <si>
+    <t>①天 て ん ぷら tenpura 天妇罗 食 た べます（食 た べる） tabema⎤su （tabe⎤ru） 吃</t>
+  </si>
+  <si>
+    <t>②歌 か 舞 ぶ 伎 き kabuki 歌舞伎 見 み ます（見 み る） mima⎤su （mi⎤ru） 看</t>
+  </si>
+  <si>
+    <t>楽 た の しみです。 Tanoshi⎤mi desu.</t>
+  </si>
+  <si>
+    <t>心し ん配ぱ い（な）　担心shinpai (na)</t>
+  </si>
+  <si>
+    <t>ラジオ　广播ra⎤jio</t>
+  </si>
+  <si>
+    <t>ラジオで勉 べ ん 強 きょう しました。 Ra⎤jio de benkyoo-shima⎤shita.</t>
+  </si>
+  <si>
+    <t>以前做过的事：把动词マス形的词尾「masu」变成「mashita」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>あ、日 に 本 ほ ん 語 ご ！ どうやって勉 べ ん 強 きょう しましたか。 A, Nihongo! Do</t>
     </r>
     <r>
       <rPr>
@@ -212,28 +319,71 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ko</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比どこ　更郑重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ベトナム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>oyatte benkyoo-shima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>から来 き ました</t>
+      <t>shita ka.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>インターネットで勉 べ ん 強 きょう しました。 Intaane⎤tto de benkyoo-shima⎤shita</t>
+  </si>
+  <si>
+    <t>①アニメ anime （看）动画片</t>
+  </si>
+  <si>
+    <t>②学 が っ 校 こ う gakkoo （在）学校</t>
+  </si>
+  <si>
+    <t>いいえ、まだまだです。 Iie, ma⎤da ma⎤da de⎤su.</t>
+  </si>
+  <si>
+    <t>電で ん車し ゃ 电车densha</t>
+  </si>
+  <si>
+    <t>山やまの手て線せん 山手线Yamanote-sen</t>
+  </si>
+  <si>
+    <t>～番ば ん線せ ん ～号站台～ban-sen</t>
+  </si>
+  <si>
+    <t>わかる　知道</t>
+  </si>
+  <si>
+    <t>この電 で ん 車 し ゃ は池い け 袋 ぶくろ に行きますか。 Kono densha wa Ikebu⎤kuro ni ikima⎤su ka.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">交通工具开往何处：「Kono 【公共交通工具】 wa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【处所】 ni ikimasu ka</t>
     </r>
     <r>
       <rPr>
@@ -243,98 +393,103 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。 Betonamu kara kima</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
+      <t>」。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいえ、行 い きません。秋 あ き 葉 は 原 ば ら は１番 ば ん 線 せ ん です。 Iie, ikimase⎤n. Akiha⎤bara wa ichi-ban-sen de⎤su.</t>
+  </si>
+  <si>
+    <t>①バス ba⎤su 大巴 空 く う 港 こ う kuukoo 机场</t>
+  </si>
+  <si>
+    <t>②電 で ん 車 し ゃ densha 电车 新 し ん 宿 じゅく Shinj</t>
+  </si>
+  <si>
+    <t>ゆっくり　慢慢yukku⎤ri</t>
+  </si>
+  <si>
+    <t>話は なす　说hana⎤su</t>
+  </si>
+  <si>
+    <t>私わたし 我watashi</t>
+  </si>
+  <si>
+    <t>ゆっくり話 は な してください。 Yukku⎤ri hana⎤shite kudasa⎤i.</t>
+  </si>
+  <si>
+    <t>提出请求时：「动词的テ形＋ kudasai」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみません。もう一 い ち 度 ど 言 い ってください。 Sumimase⎤n. Moo ichi-do itte kudasa⎤i.</t>
+  </si>
+  <si>
+    <t>①英 え い 語 ご で言い う（→言 い って） Eego de iu （→itte） 用英语说</t>
+  </si>
+  <si>
+    <t>②ローマ字 じ で書か く（→書 か いて） Roomaji de ka⎤ku （→ka⎤ite） 用罗马字写</t>
+  </si>
+  <si>
+    <t>すみません。よくわかりません。 Sumimase⎤n. Yo⎤ku wakarimase⎤n. 不好意思。我不太明白。</t>
+  </si>
+  <si>
+    <t>遅お くれる　迟到okureru</t>
+  </si>
+  <si>
+    <t>ごめんなさい　对不起gomen nasa⎤i</t>
+  </si>
+  <si>
+    <t>友と も達だ ち 朋友tomodachi</t>
+  </si>
+  <si>
+    <t>引荐朋友：【与你的关系】の【名字／姓（さん）】です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①トーマス To⎤omasu 托马斯 会 か い 社 し ゃ 員 い ん kaisha⎤in 公司职员</t>
+  </si>
+  <si>
+    <t>②エリン E ⎤rin 艾琳 教 きょう 師 し kyo⎤oshi 老师</t>
+  </si>
+  <si>
+    <t>①タイ Ta⎤i 泰国</t>
+  </si>
+  <si>
+    <t>②ブラジル Burajiru 巴西</t>
+  </si>
+  <si>
+    <t>①妹 いもうと imooto 妹妹 アンナ A ⎤nna 安娜</t>
+  </si>
+  <si>
+    <t>早上 白天 晚上 おはよう （ございます） こんにちは こんばんは ohayoo （gozaima⎤su） konnichiwa⎤ konbanwa⎤</t>
+  </si>
+  <si>
+    <t>②同 ど う 僚 りょう dooryoo 同事 ヤンさん Ya⎤n-san 杨先生</t>
+  </si>
+  <si>
+    <t>そうですか。 So⎤o de⎤su ka</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>どこ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
-      </rPr>
-      <t>⎤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shita.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はじめまして。アンナです。学 が く 生 せ い です。 Hajimema⎤shite. A⎤nna de⎤su. Gakusee de⎤su.</t>
-  </si>
-  <si>
-    <t>自我介绍：【名字／姓】です。【职业】です。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>よろしくお願 ね が いします。 Yoroshiku onegai-shima⎤su.</t>
-  </si>
-  <si>
-    <t>ありがとうございます。 Ari⎤gatoo gozaima⎤su.</t>
-  </si>
-  <si>
-    <t>大だ い学が く 大学daigaku</t>
-  </si>
-  <si>
-    <t>日に本ほ ん語ご 日语Nihongo</t>
-  </si>
-  <si>
-    <t>勉べ ん強きょうする　学习benkyoo-suru</t>
-  </si>
-  <si>
-    <t>すみません。トイレはどこですか。 Sumimase⎤n. To⎤ire wa do⎤ko de⎤su ka.</t>
-  </si>
-  <si>
-    <t>将要做什么：用动词的マス形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日 に 本 ほ ん で何な に をしますか。 Niho⎤n de na⎤ni o shima⎤su ka.</t>
-  </si>
-  <si>
-    <t>買 か い物も の をします。 Kaimono o shima⎤su.</t>
-  </si>
-  <si>
-    <t>①天 て ん ぷら tenpura 天妇罗 食 た べます（食 た べる） tabema⎤su （tabe⎤ru） 吃</t>
-  </si>
-  <si>
-    <t>②歌 か 舞 ぶ 伎 き kabuki 歌舞伎 見 み ます（見 み る） mima⎤su （mi⎤ru） 看</t>
-  </si>
-  <si>
-    <t>楽 た の しみです。 Tanoshi⎤mi desu.</t>
-  </si>
-  <si>
-    <t>今きょう日　今天kyo⎤o</t>
-  </si>
-  <si>
-    <t>心し ん配ぱ い（な）　担心shinpai (na)</t>
-  </si>
-  <si>
-    <t>上じょう手ず（な）　好joozu⎤ (na)</t>
-  </si>
-  <si>
-    <t>ラジオ　广播ra⎤jio</t>
-  </si>
-  <si>
-    <t>大だ い丈じょう夫ぶ（な）　没问题daijo⎤obu (na)</t>
-  </si>
-  <si>
-    <t>ラジオで勉 べ ん 強 きょう しました。 Ra⎤jio de benkyoo-shima⎤shita.</t>
-  </si>
-  <si>
-    <t>以前做过的事：把动词マス形的词尾「masu」变成「mashita」。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>あ、日 に 本 ほ ん 語 ご ！ どうやって勉 べ ん 強 きょう しましたか。 A, Nihongo! Do</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　哪里、哪儿 do</t>
     </r>
     <r>
       <rPr>
@@ -354,12 +509,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>oyatte benkyoo-shima</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>ko</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>今きょう日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　今天kyo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="1"/>
       </rPr>
@@ -368,147 +543,96 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shita ka.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>インターネットで勉 べ ん 強 きょう しました。 Intaane⎤tto de benkyoo-shima⎤shita</t>
-  </si>
-  <si>
-    <t>①アニメ anime （看）动画片</t>
-  </si>
-  <si>
-    <t>②学 が っ 校 こ う gakkoo （在）学校</t>
-  </si>
-  <si>
-    <t>いいえ、まだまだです。 Iie, ma⎤da ma⎤da de⎤su.</t>
-  </si>
-  <si>
-    <t>電で ん車し ゃ 电车densha</t>
-  </si>
-  <si>
-    <t>山やまの手て線せん 山手线Yamanote-sen</t>
-  </si>
-  <si>
-    <t>～番ば ん線せ ん ～号站台～ban-sen</t>
-  </si>
-  <si>
-    <t>わかる　知道</t>
-  </si>
-  <si>
-    <t>この電 で ん 車 し ゃ は池い け 袋 ぶくろ に行きますか。 Kono densha wa Ikebu⎤kuro ni ikima⎤su ka.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">交通工具开往何处：「Kono 【公共交通工具】 wa </t>
-    </r>
+      </rPr>
+      <t>o</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上じょう手ず（な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）　好joozu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【处所】 ni ikimasu ka</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> (na)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大だ い丈じょう夫ぶ（な）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>」。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いいえ、行 い きません。秋 あ き 葉 は 原 ば ら は１番 ば ん 線 せ ん です。 Iie, ikimase⎤n. Akiha⎤bara wa ichi-ban-sen de⎤su.</t>
-  </si>
-  <si>
-    <t>①バス ba⎤su 大巴 空 く う 港 こ う kuukoo 机场</t>
-  </si>
-  <si>
-    <t>②電 で ん 車 し ゃ densha 电车 新 し ん 宿 じゅく Shinj</t>
-  </si>
-  <si>
-    <t>ゆっくり　慢慢yukku⎤ri</t>
-  </si>
-  <si>
-    <t>話は なす　说hana⎤su</t>
-  </si>
-  <si>
-    <t>私わたし 我watashi</t>
-  </si>
-  <si>
-    <t>ゆっくり話 は な してください。 Yukku⎤ri hana⎤shite kudasa⎤i.</t>
-  </si>
-  <si>
-    <t>提出请求时：「动词的テ形＋ kudasai」。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すみません。もう一 い ち 度 ど 言 い ってください。 Sumimase⎤n. Moo ichi-do itte kudasa⎤i.</t>
-  </si>
-  <si>
-    <t>①英 え い 語 ご で言い う（→言 い って） Eego de iu （→itte） 用英语说</t>
-  </si>
-  <si>
-    <t>②ローマ字 じ で書か く（→書 か いて） Roomaji de ka⎤ku （→ka⎤ite） 用罗马字写</t>
-  </si>
-  <si>
-    <t>すみません。よくわかりません。 Sumimase⎤n. Yo⎤ku wakarimase⎤n. 不好意思。我不太明白。</t>
-  </si>
-  <si>
-    <t>遅お くれる　迟到okureru</t>
-  </si>
-  <si>
-    <t>ごめんなさい　对不起gomen nasa⎤i</t>
-  </si>
-  <si>
-    <t>友と も達だ ち 朋友tomodachi</t>
-  </si>
-  <si>
-    <t>引荐朋友：【与你的关系】の【名字／姓（さん）】です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①トーマス To⎤omasu 托马斯 会 か い 社 し ゃ 員 い ん kaisha⎤in 公司职员</t>
-  </si>
-  <si>
-    <t>②エリン E ⎤rin 艾琳 教 きょう 師 し kyo⎤oshi 老师</t>
-  </si>
-  <si>
-    <t>①タイ Ta⎤i 泰国</t>
-  </si>
-  <si>
-    <t>②ブラジル Burajiru 巴西</t>
-  </si>
-  <si>
-    <t>①妹 いもうと imooto 妹妹 アンナ A ⎤nna 安娜</t>
-  </si>
-  <si>
-    <t>早上 白天 晚上 おはよう （ございます） こんにちは こんばんは ohayoo （gozaima⎤su） konnichiwa⎤ konbanwa⎤</t>
-  </si>
-  <si>
-    <t>②同 ど う 僚 りょう dooryoo 同事 ヤンさん Ya⎤n-san 杨先生</t>
+      <t>　没问题daijo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obu (na)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +682,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,9 +726,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,470 +1010,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="16.5">
       <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="C37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.5">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.5">
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.5">
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16.5">
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>82</v>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/datastats/n.xlsx
+++ b/datastats/n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\cTest\datastats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56891DF-F83D-4799-90AB-78983E0D4DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ECF133-0378-4DF5-9119-08AD0451CC00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>友 と も 達 だ ち のあやかさんです。</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>私わたし 我watashi</t>
-  </si>
-  <si>
-    <t>ゆっくり話 は な してください。 Yukku⎤ri hana⎤shite kudasa⎤i.</t>
   </si>
   <si>
     <t>提出请求时：「动词的テ形＋ kudasai」。</t>
@@ -625,6 +622,116 @@
       </rPr>
       <t>obu (na)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゆっくり話 は な してください。 Yukku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ri hana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shite kudasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>⎤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここ　这里、这儿koko</t>
+  </si>
+  <si>
+    <t>デパ地ち下か 百货商店的地下食品区depa-chika</t>
+  </si>
+  <si>
+    <t>食たべ物も の 吃的tabemo⎤no</t>
+  </si>
+  <si>
+    <t>これ　这个kore</t>
+  </si>
+  <si>
+    <t>何な ん 什么na⎤n</t>
+  </si>
+  <si>
+    <t>漬つけ物もの 腌菜tsukemono</t>
+  </si>
+  <si>
+    <t>これは何 な ん ですか。</t>
+  </si>
+  <si>
+    <t>询问东西的名称: ：「Kore / Sore / Are wa nan desu ka」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみません。これは何 な ん ですか。 Sumimase⎤n. Kore wa na⎤n de⎤su ka. お茶ち ゃ です。 Ocha de⎤su.</t>
+  </si>
+  <si>
+    <t>おいしいです。 Oishi⎤i de⎤su. 好吃。</t>
+  </si>
+  <si>
+    <t>いくら　多少钱i⎤kura</t>
+  </si>
+  <si>
+    <t>書かく　写ka⎤ku</t>
+  </si>
+  <si>
+    <t>ドライヤー　吹风机doraiyaa</t>
+  </si>
+  <si>
+    <t>このドライヤーはいくらですか。</t>
+  </si>
+  <si>
+    <t>询问价钱时：「Ikura desu ka」（多少钱）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +808,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1010,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1023,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1091,372 +1205,463 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>13</v>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>73</v>
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>30</v>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28">
-        <v>3</v>
-      </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="C37" t="s">
-        <v>26</v>
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
-        <v>4</v>
-      </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5">
+      <c r="B48" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.5">
+      <c r="B50" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5">
-      <c r="A53">
-        <v>5</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>82</v>
+      <c r="B53" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5">
-      <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5">
-      <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>44</v>
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="B62" t="s">
-        <v>48</v>
+      <c r="A62" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="B63" t="s">
-        <v>49</v>
+      <c r="A63" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>50</v>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66">
-        <v>6</v>
-      </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="B67" t="s">
-        <v>52</v>
+      <c r="A67">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16.5">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="B75" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78">
-        <v>7</v>
-      </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="B80" t="s">
-        <v>62</v>
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>63</v>
+      <c r="B82" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>64</v>
-      </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="B85" t="s">
-        <v>67</v>
+      <c r="A85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>68</v>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89">
-        <v>8</v>
-      </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="B95" t="s">
-        <v>79</v>
+      <c r="A95" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="B96" t="s">
-        <v>78</v>
+      <c r="A96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
